--- a/Shablon/данные2.xlsx
+++ b/Shablon/данные2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Besitzer\source\repos\Shablon\Shablon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951E4944-2736-47C1-980B-B160AC415FED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1A8D88-6CE3-4EE2-B92D-9770F9F5B9E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13890" windowHeight="8100" xr2:uid="{BF26D303-DD6E-4AE6-83A0-C7983D72776C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">variable_bt </t>
   </si>
@@ -55,6 +55,15 @@
   </si>
   <si>
     <t xml:space="preserve">nr </t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>09.2024</t>
+  </si>
+  <si>
+    <t>Петров П.П.</t>
   </si>
 </sst>
 </file>
@@ -522,7 +531,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="23.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,13 +589,27 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="12"/>
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2">
+        <v>23456789</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="6">
+        <v>45870</v>
+      </c>
+      <c r="G3" s="11">
+        <v>2025</v>
+      </c>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
